--- a/TCC EXCEL FILES/TCC 2022.xlsx
+++ b/TCC EXCEL FILES/TCC 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NodeJS WebApps\JSONFILEUPLOAD\TCC EXCEL FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FBE82C-A974-4AA8-BF28-2C976F49FFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481198FA-933B-421A-8FDF-2E4AABA54142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="485">
   <si>
     <t>Judges Names</t>
   </si>
@@ -1472,6 +1472,9 @@
   </si>
   <si>
     <t>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521091/index.do</t>
+  </si>
+  <si>
+    <t>Issue</t>
   </si>
 </sst>
 </file>
@@ -1854,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="M122" sqref="M122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1867,7 +1870,7 @@
     <col min="7" max="7" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1905,10 +1908,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1945,11 +1951,14 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1986,11 +1995,14 @@
       <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2027,11 +2039,14 @@
       <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2068,11 +2083,14 @@
       <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2109,11 +2127,14 @@
       <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -2150,11 +2171,14 @@
       <c r="L7" t="s">
         <v>57</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -2191,11 +2215,14 @@
       <c r="L8" t="s">
         <v>57</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -2232,11 +2259,14 @@
       <c r="L9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2273,11 +2303,14 @@
       <c r="L10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -2314,11 +2347,14 @@
       <c r="L11" t="s">
         <v>22</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -2355,11 +2391,14 @@
       <c r="L12" t="s">
         <v>22</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -2396,11 +2435,14 @@
       <c r="L13" t="s">
         <v>57</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2437,11 +2479,14 @@
       <c r="L14" t="s">
         <v>22</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -2478,11 +2523,14 @@
       <c r="L15" t="s">
         <v>22</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -2519,11 +2567,14 @@
       <c r="L16" t="s">
         <v>22</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -2560,11 +2611,14 @@
       <c r="L17" t="s">
         <v>22</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -2601,11 +2655,14 @@
       <c r="L18" t="s">
         <v>57</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -2642,11 +2699,14 @@
       <c r="L19" t="s">
         <v>22</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>128</v>
       </c>
@@ -2683,11 +2743,14 @@
       <c r="L20" t="s">
         <v>22</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -2724,11 +2787,14 @@
       <c r="L21" t="s">
         <v>57</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -2765,11 +2831,14 @@
       <c r="L22" t="s">
         <v>57</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -2806,11 +2875,14 @@
       <c r="L23" t="s">
         <v>57</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -2847,11 +2919,14 @@
       <c r="L24" t="s">
         <v>22</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2888,11 +2963,14 @@
       <c r="L25" t="s">
         <v>22</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -2929,11 +3007,14 @@
       <c r="L26" t="s">
         <v>22</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2970,11 +3051,14 @@
       <c r="L27" t="s">
         <v>22</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -3011,11 +3095,14 @@
       <c r="L28" t="s">
         <v>57</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -3052,11 +3139,14 @@
       <c r="L29" t="s">
         <v>22</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>169</v>
       </c>
@@ -3093,11 +3183,14 @@
       <c r="L30" t="s">
         <v>22</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -3134,11 +3227,14 @@
       <c r="L31" t="s">
         <v>22</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -3175,11 +3271,14 @@
       <c r="L32" t="s">
         <v>22</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -3216,11 +3315,14 @@
       <c r="L33" t="s">
         <v>22</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -3257,11 +3359,14 @@
       <c r="L34" t="s">
         <v>57</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -3298,11 +3403,14 @@
       <c r="L35" t="s">
         <v>22</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -3339,11 +3447,14 @@
       <c r="L36" t="s">
         <v>57</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -3380,11 +3491,14 @@
       <c r="L37" t="s">
         <v>22</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>132</v>
       </c>
@@ -3421,11 +3535,14 @@
       <c r="L38" t="s">
         <v>57</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>202</v>
       </c>
@@ -3462,11 +3579,14 @@
       <c r="L39" t="s">
         <v>22</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -3503,11 +3623,14 @@
       <c r="L40" t="s">
         <v>22</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -3544,11 +3667,14 @@
       <c r="L41" t="s">
         <v>22</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -3585,11 +3711,14 @@
       <c r="L42" t="s">
         <v>22</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -3626,11 +3755,14 @@
       <c r="L43" t="s">
         <v>22</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -3667,11 +3799,14 @@
       <c r="L44" t="s">
         <v>22</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>228</v>
       </c>
@@ -3708,11 +3843,14 @@
       <c r="L45" t="s">
         <v>22</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>228</v>
       </c>
@@ -3749,11 +3887,14 @@
       <c r="L46" t="s">
         <v>22</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -3790,11 +3931,14 @@
       <c r="L47" t="s">
         <v>22</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -3831,11 +3975,14 @@
       <c r="L48" t="s">
         <v>22</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>228</v>
       </c>
@@ -3872,11 +4019,14 @@
       <c r="L49" t="s">
         <v>22</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>228</v>
       </c>
@@ -3913,11 +4063,14 @@
       <c r="L50" t="s">
         <v>22</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>202</v>
       </c>
@@ -3954,11 +4107,14 @@
       <c r="L51" t="s">
         <v>22</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>252</v>
       </c>
@@ -3995,11 +4151,14 @@
       <c r="L52" t="s">
         <v>22</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -4036,11 +4195,14 @@
       <c r="L53" t="s">
         <v>22</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>252</v>
       </c>
@@ -4077,11 +4239,14 @@
       <c r="L54" t="s">
         <v>22</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -4118,11 +4283,14 @@
       <c r="L55" t="s">
         <v>22</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>228</v>
       </c>
@@ -4159,11 +4327,14 @@
       <c r="L56" t="s">
         <v>22</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>264</v>
       </c>
@@ -4200,11 +4371,14 @@
       <c r="L57" t="s">
         <v>22</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -4236,11 +4410,14 @@
       <c r="K58" t="s">
         <v>72</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -4277,11 +4454,14 @@
       <c r="L59" t="s">
         <v>22</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -4318,11 +4498,14 @@
       <c r="L60" t="s">
         <v>22</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -4359,11 +4542,14 @@
       <c r="L61" t="s">
         <v>22</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -4400,11 +4586,14 @@
       <c r="L62" t="s">
         <v>57</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>252</v>
       </c>
@@ -4441,11 +4630,14 @@
       <c r="L63" t="s">
         <v>22</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>284</v>
       </c>
@@ -4482,11 +4674,14 @@
       <c r="L64" t="s">
         <v>22</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -4523,11 +4718,14 @@
       <c r="L65" t="s">
         <v>57</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -4564,11 +4762,14 @@
       <c r="L66" t="s">
         <v>22</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -4605,11 +4806,14 @@
       <c r="L67" t="s">
         <v>22</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>295</v>
       </c>
@@ -4646,11 +4850,14 @@
       <c r="L68" t="s">
         <v>22</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -4687,11 +4894,14 @@
       <c r="L69" t="s">
         <v>22</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -4728,11 +4938,14 @@
       <c r="L70" t="s">
         <v>22</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -4769,11 +4982,14 @@
       <c r="L71" t="s">
         <v>22</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>176</v>
       </c>
@@ -4810,11 +5026,14 @@
       <c r="L72" t="s">
         <v>22</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>202</v>
       </c>
@@ -4851,11 +5070,14 @@
       <c r="L73" t="s">
         <v>22</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -4892,11 +5114,14 @@
       <c r="L74" t="s">
         <v>22</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>252</v>
       </c>
@@ -4933,11 +5158,14 @@
       <c r="L75" t="s">
         <v>22</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -4974,11 +5202,14 @@
       <c r="L76" t="s">
         <v>22</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -5015,11 +5246,14 @@
       <c r="L77" t="s">
         <v>57</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>128</v>
       </c>
@@ -5056,11 +5290,14 @@
       <c r="L78" t="s">
         <v>22</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>132</v>
       </c>
@@ -5097,11 +5334,14 @@
       <c r="L79" t="s">
         <v>57</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>284</v>
       </c>
@@ -5138,11 +5378,14 @@
       <c r="L80" t="s">
         <v>22</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -5179,11 +5422,14 @@
       <c r="L81" t="s">
         <v>22</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>329</v>
       </c>
@@ -5220,11 +5466,14 @@
       <c r="L82" t="s">
         <v>22</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>333</v>
       </c>
@@ -5261,11 +5510,14 @@
       <c r="L83" t="s">
         <v>22</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>333</v>
       </c>
@@ -5302,11 +5554,14 @@
       <c r="L84" t="s">
         <v>22</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>115</v>
       </c>
@@ -5343,11 +5598,14 @@
       <c r="L85" t="s">
         <v>22</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>176</v>
       </c>
@@ -5384,11 +5642,14 @@
       <c r="L86" t="s">
         <v>22</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>329</v>
       </c>
@@ -5425,11 +5686,14 @@
       <c r="L87" t="s">
         <v>22</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>333</v>
       </c>
@@ -5466,11 +5730,14 @@
       <c r="L88" t="s">
         <v>22</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>346</v>
       </c>
@@ -5507,11 +5774,14 @@
       <c r="L89" t="s">
         <v>22</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -5548,11 +5818,14 @@
       <c r="L90" t="s">
         <v>22</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>284</v>
       </c>
@@ -5589,11 +5862,14 @@
       <c r="L91" t="s">
         <v>22</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>38</v>
       </c>
@@ -5630,11 +5906,14 @@
       <c r="L92" t="s">
         <v>22</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>38</v>
       </c>
@@ -5671,11 +5950,14 @@
       <c r="L93" t="s">
         <v>22</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -5712,11 +5994,14 @@
       <c r="L94" t="s">
         <v>57</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>132</v>
       </c>
@@ -5753,11 +6038,14 @@
       <c r="L95" t="s">
         <v>57</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>67</v>
       </c>
@@ -5794,11 +6082,14 @@
       <c r="L96" t="s">
         <v>22</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>228</v>
       </c>
@@ -5835,11 +6126,14 @@
       <c r="L97" t="s">
         <v>22</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>50</v>
       </c>
@@ -5876,11 +6170,14 @@
       <c r="L98" t="s">
         <v>57</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>50</v>
       </c>
@@ -5917,11 +6214,14 @@
       <c r="L99" t="s">
         <v>57</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>252</v>
       </c>
@@ -5958,11 +6258,14 @@
       <c r="L100" t="s">
         <v>22</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>86</v>
       </c>
@@ -5999,11 +6302,14 @@
       <c r="L101" t="s">
         <v>22</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>252</v>
       </c>
@@ -6040,11 +6346,14 @@
       <c r="L102" t="s">
         <v>22</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>86</v>
       </c>
@@ -6081,11 +6390,14 @@
       <c r="L103" t="s">
         <v>22</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>202</v>
       </c>
@@ -6122,11 +6434,14 @@
       <c r="L104" t="s">
         <v>22</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>295</v>
       </c>
@@ -6163,11 +6478,14 @@
       <c r="L105" t="s">
         <v>22</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>228</v>
       </c>
@@ -6204,11 +6522,14 @@
       <c r="L106" t="s">
         <v>22</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>67</v>
       </c>
@@ -6245,11 +6566,14 @@
       <c r="L107" t="s">
         <v>22</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>86</v>
       </c>
@@ -6286,11 +6610,14 @@
       <c r="L108" t="s">
         <v>22</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>295</v>
       </c>
@@ -6327,11 +6654,14 @@
       <c r="L109" t="s">
         <v>22</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -6368,11 +6698,14 @@
       <c r="L110" t="s">
         <v>22</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -6409,11 +6742,14 @@
       <c r="L111" t="s">
         <v>22</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>38</v>
       </c>
@@ -6450,11 +6786,14 @@
       <c r="L112" t="s">
         <v>22</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>284</v>
       </c>
@@ -6491,11 +6830,14 @@
       <c r="L113" t="s">
         <v>22</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -6532,11 +6874,14 @@
       <c r="L114" t="s">
         <v>22</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>398</v>
       </c>
@@ -6573,11 +6918,14 @@
       <c r="L115" t="s">
         <v>57</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>67</v>
       </c>
@@ -6614,11 +6962,14 @@
       <c r="L116" t="s">
         <v>22</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>30</v>
       </c>
@@ -6655,11 +7006,14 @@
       <c r="L117" t="s">
         <v>22</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>95</v>
       </c>
@@ -6696,11 +7050,14 @@
       <c r="L118" t="s">
         <v>57</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>67</v>
       </c>
@@ -6737,11 +7094,14 @@
       <c r="L119" t="s">
         <v>22</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -6778,11 +7138,14 @@
       <c r="L120" t="s">
         <v>22</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>95</v>
       </c>
@@ -6819,14 +7182,17 @@
       <c r="L121" t="s">
         <v>57</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121" t="s">
         <v>483</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M1 A32:L51 A2:L30" numberStoredAsText="1"/>
+    <ignoredError sqref="N1 A32:L51 A1:L30" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>